--- a/TP1/Analisis/Calculos teoricos.xlsx
+++ b/TP1/Analisis/Calculos teoricos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Vcc</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>ros</t>
+  </si>
+  <si>
+    <t>rce1</t>
+  </si>
+  <si>
+    <t>rce2</t>
+  </si>
+  <si>
+    <t>Va</t>
+  </si>
+  <si>
+    <t>zin1</t>
+  </si>
+  <si>
+    <t>zin1//rce1+hie2*</t>
+  </si>
+  <si>
+    <t>VCEQ1</t>
+  </si>
+  <si>
+    <t>VCEQ2</t>
   </si>
 </sst>
 </file>
@@ -352,35 +373,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,8 +390,30 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,282 +726,389 @@
     <col min="2" max="2" width="11.42578125" style="2"/>
     <col min="5" max="5" width="11.42578125" style="2"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="18"/>
+    <col min="12" max="12" width="11.42578125" style="11"/>
     <col min="14" max="14" width="9.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="4"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <f>B2*B4/(B4+B3)</f>
         <v>11.511627906976743</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="4">
         <f>(D2-D4-D5*(1-B7*D6/B6))/(D3/D7+B7*D6)</f>
         <v>9.3543463340569548E-5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10">
-        <f>H7+(H3+1)*H9+(H3+1)*(H5+1)*H6</f>
+      <c r="J2" s="7">
+        <f>H10+(H3+1)*H12+(H3+1)*(H8+1)*H9</f>
         <v>3305442.7185183191</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="19">
-        <f>H6*(H5+1)*(H3+1)/J2</f>
+      <c r="L2" s="12">
+        <f>H9*(H8+1)*(H3+1)/J2</f>
         <v>0.9813776474400524</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="21">
-        <f>(H5+1)*(H3+1)</f>
+      <c r="N2" s="14">
+        <f>(H8+1)*(H3+1)</f>
         <v>3934.0764496659458</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="23"/>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(B5*D3)/(B5+D3)+H10</f>
+        <v>22188.576842660288</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>100000</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <f>B4*B3/(B3+B4)</f>
         <v>76744.186046511633</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
         <f>D2/(D3/(D6*D7)+B7*(D6+1)/D6)-D4/(D3/D6+B7*D7*(D6+1)/D6)-D5*(D6/B6+(1-B7*D6/B6)*(D7+1)/(D3/D6+B7*D7*(D6+1)/D6))</f>
         <v>2.2993084791346876E-3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <f>D7</f>
         <v>47</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <f>J2*D3/(D3+J2)</f>
         <v>75002.806797484183</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="13">
         <f>L2*J3/(J3+B5)</f>
         <v>0.86592526599362019</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="14">
         <f>N2*D3/(D3+J2)</f>
         <v>89.266945764255325</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="23"/>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="1">
+        <f>P2*H6/(H6+P2)+H12</f>
+        <v>22741.84890797253</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>330000</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>0.7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="4">
         <f>(F2-D5/B6)*D6</f>
         <v>2.1189117006512599E-3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f>D6</f>
         <v>90</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <f>J3+B5</f>
         <v>85002.806797484183</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="15">
         <f>N3*B7/(B7+B8)</f>
         <v>73.60607808631579</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="1">
+        <f>P3*H7/(H7+P3)</f>
+        <v>15346.622905369859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4">
+        <f>B2-D5*(1+B7/B6)-B7*F4</f>
+        <v>4.0121150069390783</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="21">
+        <f>P4*B7/(B7+P4)</f>
+        <v>3598.0687617921526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>90</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6">
+        <f>B2-D5*B7/B6-B7*F4</f>
+        <v>4.7121150069390776</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4">
+        <f>H5/F2</f>
+        <v>1069021.7833385507</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="P6" s="22">
+        <f>P5*B8/(B8+P5)</f>
+        <v>782.51738897218286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4700</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>47</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4">
+        <f>H5/F4</f>
+        <v>47194.038321306361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6">
-        <f>H4*B6/(B6+H8)</f>
+      <c r="H8" s="4">
+        <f>H4*B6/(B6+H11)</f>
         <v>80.959926034707209</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>90</v>
-      </c>
-      <c r="G6" s="5" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H9" s="4">
         <f>B7*B8/(B8+B7)</f>
         <v>824.56140350877195</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
-        <v>4700</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>47</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="O9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H10" s="4">
         <f>H2/F2*(H3+1)</f>
         <v>13341.391856065111</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="O10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="21">
+        <f>P9*B4/(B4+P9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H11" s="4">
         <f>H2/F4*(H4+1)</f>
         <v>1116.6109466821085</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="7" t="s">
+      <c r="O11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="22">
+        <f>P10*B5/(B5+P10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8">
-        <f>H8*B6/(B6+H8)</f>
+      <c r="H12" s="6">
+        <f>H11*B6/(B6+H11)</f>
         <v>1004.45266281031</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="21">
+        <f>B5*D3/(B5+D3)+H10+H12</f>
+        <v>23193.029505470597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="21">
+        <f>P12*B7/(B7+P12)</f>
+        <v>3908.0458669551281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="22">
+        <f>P13*B8/(B8+P13)</f>
+        <v>796.25292283171268</v>
       </c>
     </row>
   </sheetData>

--- a/TP1/Analisis/Calculos teoricos.xlsx
+++ b/TP1/Analisis/Calculos teoricos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Vcc</t>
   </si>
@@ -145,21 +145,6 @@
   </si>
   <si>
     <t>ros</t>
-  </si>
-  <si>
-    <t>rce1</t>
-  </si>
-  <si>
-    <t>rce2</t>
-  </si>
-  <si>
-    <t>Va</t>
-  </si>
-  <si>
-    <t>zin1</t>
-  </si>
-  <si>
-    <t>zin1//rce1+hie2*</t>
   </si>
   <si>
     <t>VCEQ1</t>
@@ -373,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -390,6 +375,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,18 +391,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,41 +714,41 @@
     <col min="16" max="16" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -796,32 +779,32 @@
         <v>21</v>
       </c>
       <c r="J2" s="7">
-        <f>H10+(H3+1)*H12+(H3+1)*(H8+1)*H9</f>
+        <f>H7+(H3+1)*H9+(H3+1)*(H5+1)*H6</f>
         <v>3305442.7185183191</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="12">
-        <f>H9*(H8+1)*(H3+1)/J2</f>
+        <f>H6*(H5+1)*(H3+1)/J2</f>
         <v>0.9813776474400524</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N2" s="14">
-        <f>(H8+1)*(H3+1)</f>
+        <f>(H5+1)*(H3+1)</f>
         <v>3934.0764496659458</v>
       </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1">
-        <f>(B5*D3)/(B5+D3)+H10</f>
-        <v>22188.576842660288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="16">
+        <f>(B5*D3/(D3+B5)+H7+(H3+1)*H9)/(H3+1)/(H5+1)</f>
+        <v>17.895510053835693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -870,15 +853,15 @@
         <f>N2*D3/(D3+J2)</f>
         <v>89.266945764255325</v>
       </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="1">
-        <f>P2*H6/(H6+P2)+H12</f>
-        <v>22741.84890797253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="16">
+        <f>P2*B7/(P2+B7)</f>
+        <v>17.82763036480814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -919,15 +902,15 @@
         <f>N3*B7/(B7+B8)</f>
         <v>73.60607808631579</v>
       </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="1">
-        <f>P3*H7/(H7+P3)</f>
-        <v>15346.622905369859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="17">
+        <f>P3*B8/(B8+P3)</f>
+        <v>17.515372773303856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,28 +923,29 @@
       <c r="D5" s="7">
         <v>0.7</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>48</v>
+      <c r="E5" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="4">
         <f>B2-D5*(1+B7/B6)-B7*F4</f>
         <v>4.0121150069390783</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>45</v>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="4">
-        <v>100</v>
-      </c>
-      <c r="O5" s="3" t="s">
+        <f>H4*B6/(B6+H8)</f>
+        <v>80.959926034707209</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="21">
-        <f>P4*B7/(B7+P4)</f>
-        <v>3598.0687617921526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="16" t="e">
+        <f>#REF!*B7/(B7+#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,29 +958,29 @@
       <c r="D6" s="7">
         <v>90</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>49</v>
+      <c r="E6" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="6">
         <f>B2-D5*B7/B6-B7*F4</f>
         <v>4.7121150069390776</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>43</v>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H6" s="4">
-        <f>H5/F2</f>
-        <v>1069021.7833385507</v>
-      </c>
-      <c r="O6" s="5" t="s">
+        <f>B7*B8/(B8+B7)</f>
+        <v>824.56140350877195</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="22">
-        <f>P5*B8/(B8+P5)</f>
-        <v>782.51738897218286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W6" s="17" t="e">
+        <f>W5*B8/(B8+W5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1009,15 +993,16 @@
       <c r="D7" s="6">
         <v>47</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>44</v>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="H7" s="4">
-        <f>H5/F4</f>
-        <v>47194.038321306361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>H2/F2*(H3+1)</f>
+        <v>13341.391856065111</v>
+      </c>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1025,89 +1010,69 @@
         <v>1000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4">
-        <f>H4*B6/(B6+H11)</f>
-        <v>80.959926034707209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4">
-        <f>B7*B8/(B8+B7)</f>
-        <v>824.56140350877195</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4">
-        <f>H2/F2*(H3+1)</f>
-        <v>13341.391856065111</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="21">
-        <f>P9*B4/(B4+P9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="4">
         <f>H2/F4*(H4+1)</f>
         <v>1116.6109466821085</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6">
+        <f>H8*B6/(B6+H8)</f>
+        <v>1004.45266281031</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="16"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="16">
+        <f>W9*B4/(B4+W9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="22">
-        <f>P10*B5/(B5+P10)</f>
+      <c r="W11" s="17">
+        <f>W10*B5/(B5+W10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6">
-        <f>H11*B6/(B6+H11)</f>
-        <v>1004.45266281031</v>
-      </c>
-      <c r="O12" s="3" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="21">
-        <f>B5*D3/(B5+D3)+H10+H12</f>
+      <c r="W12" s="16">
+        <f>B5*D3/(B5+D3)+H7+H9</f>
         <v>23193.029505470597</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O13" s="3" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="21">
-        <f>P12*B7/(B7+P12)</f>
+      <c r="W13" s="16">
+        <f>W12*B7/(B7+W12)</f>
         <v>3908.0458669551281</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O14" s="5" t="s">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="22">
-        <f>P13*B8/(B8+P13)</f>
+      <c r="W14" s="17">
+        <f>W13*B8/(B8+W13)</f>
         <v>796.25292283171268</v>
       </c>
     </row>

--- a/TP1/Analisis/Calculos teoricos.xlsx
+++ b/TP1/Analisis/Calculos teoricos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Vcc</t>
   </si>
@@ -151,6 +151,30 @@
   </si>
   <si>
     <t>VCEQ2</t>
+  </si>
+  <si>
+    <t>Parámetro</t>
+  </si>
+  <si>
+    <t>Simulado</t>
+  </si>
+  <si>
+    <t>Teórico</t>
+  </si>
+  <si>
+    <t>Medido</t>
+  </si>
+  <si>
+    <t>Zos</t>
+  </si>
+  <si>
+    <t>Avs (veces)</t>
+  </si>
+  <si>
+    <t>Ais (veces)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zis </t>
   </si>
 </sst>
 </file>
@@ -178,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -354,11 +378,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -395,6 +434,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,6 +1107,18 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="V13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1068,12 +1128,66 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.86299999999999999</v>
+      </c>
       <c r="V14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="W14" s="17">
         <f>W13*B8/(B8+W13)</f>
         <v>796.25292283171268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1">
+        <v>74</v>
+      </c>
+      <c r="C15" s="28">
+        <v>75.739999999999995</v>
+      </c>
+      <c r="D15" s="28">
+        <v>75.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="28">
+        <v>85</v>
+      </c>
+      <c r="C16" s="28">
+        <v>86.66</v>
+      </c>
+      <c r="D16" s="28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="28">
+        <v>17.52</v>
+      </c>
+      <c r="C17" s="28">
+        <v>35.89</v>
+      </c>
+      <c r="D17" s="28">
+        <v>32.97</v>
       </c>
     </row>
   </sheetData>
